--- a/public/coffee/bar.xlsx
+++ b/public/coffee/bar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F2977-95CB-824A-B893-763554A7B38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A2851E-4797-3A4D-A93A-8DCC58E5F578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Американо</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
   </si>
   <si>
     <t>250/350</t>
-  </si>
-  <si>
-    <t>8/10</t>
   </si>
   <si>
     <t>Кофейный напиток, в котором гармонично сочетаются эспрессо и молоко</t>
@@ -294,9 +288,6 @@
     <t>რაფი</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Нежный сливочный напиток со вкусом по выбору гостя. Для истинных ценителей изысканного вкуса и умеренной сладости.</t>
   </si>
   <si>
@@ -313,9 +304,6 @@
   </si>
   <si>
     <t>კაკაო</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Согревающий ароматный напиток на основе какао-порошка.</t>
@@ -394,9 +382,6 @@
   </si>
   <si>
     <t>ცივი მოხარშული კრემისებრი</t>
-  </si>
-  <si>
-    <t>9/12</t>
   </si>
   <si>
     <t>Кофе холодного отжима с шариком ванильного мороженого</t>
@@ -803,6 +788,21 @@
   <si>
     <t>ყავის შპრიცი</t>
   </si>
+  <si>
+    <t>9/11</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10/13</t>
+  </si>
 </sst>
 </file>
 
@@ -1289,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1352,17 +1352,17 @@
         <v>37</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="11"/>
       <c r="H2" s="6"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I7" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I6" si="0">LOWER($B2)</f>
         <v>espresso</v>
       </c>
       <c r="J2" s="13" t="str">
-        <f t="shared" ref="J2:J7" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J2:J6" si="1">LOWER($B2)&amp;"_"&amp;2</f>
         <v>espresso_2</v>
       </c>
       <c r="K2" s="2"/>
@@ -1371,28 +1371,28 @@
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1405,28 +1405,28 @@
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1439,28 +1439,28 @@
     </row>
     <row r="5" spans="1:13" ht="15">
       <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>55</v>
+      <c r="D5" s="12" t="s">
+        <v>41</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1473,28 +1473,28 @@
     </row>
     <row r="6" spans="1:13" ht="15">
       <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
+      <c r="E6" s="12" t="s">
+        <v>250</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5501,7 +5501,9 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5550,28 +5552,28 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I9" si="0">LOWER($B2)</f>
@@ -5601,28 +5603,28 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="I3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5652,28 +5654,28 @@
     </row>
     <row r="4" spans="1:27" ht="15">
       <c r="A4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="G4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="H4" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5703,28 +5705,28 @@
     </row>
     <row r="5" spans="1:27" ht="15">
       <c r="A5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5754,19 +5756,19 @@
     </row>
     <row r="6" spans="1:27" ht="15">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="6"/>
@@ -5798,19 +5800,19 @@
     </row>
     <row r="7" spans="1:27" ht="15">
       <c r="A7" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="6"/>
@@ -5842,19 +5844,19 @@
     </row>
     <row r="8" spans="1:27" ht="15">
       <c r="A8" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="6"/>
@@ -5886,19 +5888,19 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D9" s="5">
         <v>250</v>
       </c>
       <c r="E9" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -34660,7 +34662,9 @@
   </sheetPr>
   <dimension ref="A1:AA996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -34722,28 +34726,28 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I9" si="0">LOWER($B2)</f>
@@ -34773,26 +34777,26 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -34822,28 +34826,28 @@
     </row>
     <row r="4" spans="1:27" ht="13">
       <c r="A4" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -34873,28 +34877,28 @@
     </row>
     <row r="5" spans="1:27" ht="13">
       <c r="A5" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -34924,13 +34928,13 @@
     </row>
     <row r="6" spans="1:27" ht="13">
       <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D6" s="5">
         <v>350</v>
@@ -34939,13 +34943,13 @@
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -34958,13 +34962,13 @@
     </row>
     <row r="7" spans="1:27" ht="13">
       <c r="A7" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D7" s="5">
         <v>350</v>
@@ -34973,13 +34977,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -34992,13 +34996,13 @@
     </row>
     <row r="8" spans="1:27" ht="13">
       <c r="A8" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D8" s="5">
         <v>350</v>
@@ -35007,13 +35011,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -35026,13 +35030,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D9" s="5">
         <v>350</v>
@@ -35041,13 +35045,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -63693,7 +63697,9 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -63734,28 +63740,28 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I6" si="0">LOWER($B2)</f>
@@ -63785,19 +63791,19 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="6"/>
@@ -63829,28 +63835,28 @@
     </row>
     <row r="4" spans="1:27" ht="15">
       <c r="A4" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -63880,13 +63886,13 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D5" s="5">
         <v>250</v>
@@ -63895,13 +63901,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -63915,13 +63921,13 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D6" s="5">
         <v>250</v>
@@ -63930,13 +63936,13 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64030,19 +64036,19 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="6"/>
@@ -64074,19 +64080,19 @@
     </row>
     <row r="3" spans="1:27" ht="15">
       <c r="A3" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="6"/>
@@ -64118,19 +64124,19 @@
     </row>
     <row r="4" spans="1:27" ht="15">
       <c r="A4" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="6"/>
@@ -64162,13 +64168,13 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D5" s="5">
         <v>250</v>
@@ -64188,13 +64194,13 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D6" s="5">
         <v>250</v>
@@ -64214,13 +64220,13 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D7" s="5">
         <v>250</v>
@@ -64240,13 +64246,13 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D8" s="5">
         <v>250</v>
@@ -64266,13 +64272,13 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D9" s="5">
         <v>250</v>
@@ -64291,13 +64297,13 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D10" s="5">
         <v>250</v>
@@ -64381,28 +64387,28 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I10" si="0">LOWER($B2)</f>
@@ -64432,28 +64438,28 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64466,28 +64472,28 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64500,28 +64506,28 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64534,28 +64540,28 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64568,28 +64574,28 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64602,28 +64608,28 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64636,28 +64642,28 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64690,7 +64696,7 @@
   </sheetPr>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -64731,17 +64737,17 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="A2" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="6"/>
@@ -64772,13 +64778,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E3" s="5">
         <v>20</v>
@@ -64794,13 +64800,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E4" s="5">
         <v>20</v>

--- a/public/coffee/bar.xlsx
+++ b/public/coffee/bar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A2851E-4797-3A4D-A93A-8DCC58E5F578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71441A-4A3D-2F41-83E0-EC18B621257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="matcha" sheetId="5" r:id="rId5"/>
     <sheet name="tea" sheetId="6" r:id="rId6"/>
     <sheet name="wine card" sheetId="7" r:id="rId7"/>
-    <sheet name="cocktails" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="235">
   <si>
     <t>name_ru</t>
   </si>
@@ -639,33 +638,6 @@
     <t>მასალა</t>
   </si>
   <si>
-    <t>чай облепиха розмарин</t>
-  </si>
-  <si>
-    <t>oblepiha rosmary tea</t>
-  </si>
-  <si>
-    <t>ობლეპიკა როზმარინის ჩაი</t>
-  </si>
-  <si>
-    <t>пикантный клюквенный чай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сranberry piquant tea </t>
-  </si>
-  <si>
-    <t>მოცვის პიკანტური ჩაი</t>
-  </si>
-  <si>
-    <t>травяной малиновый чай</t>
-  </si>
-  <si>
-    <t>herbal raspberry tea</t>
-  </si>
-  <si>
-    <t>მცენარეული ჟოლოს ჩაი</t>
-  </si>
-  <si>
     <t>Casa Farive Prosecco Frizzante Treviso DOC</t>
   </si>
   <si>
@@ -757,36 +729,6 @@
   </si>
   <si>
     <t>Dry red wine with the aroma of caramel, chocolate and notes of eucalyptus and licorice. Well-structured taste and long aftertaste with fine and balanced tannins.</t>
-  </si>
-  <si>
-    <t>апероль спритц</t>
-  </si>
-  <si>
-    <t>aperol spritz</t>
-  </si>
-  <si>
-    <t>აპეროლ სპრიცი</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>манго кокос спритц</t>
-  </si>
-  <si>
-    <t>mango coconut spritz</t>
-  </si>
-  <si>
-    <t>მანგოს ქოქოსის შპრიცი</t>
-  </si>
-  <si>
-    <t>кофейный спритц</t>
-  </si>
-  <si>
-    <t>coffee spritz</t>
-  </si>
-  <si>
-    <t>ყავის შპრიცი</t>
   </si>
   <si>
     <t>9/11</t>
@@ -1417,7 +1359,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>49</v>
@@ -1485,7 +1427,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>64</v>
@@ -5666,7 +5608,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>82</v>
@@ -5768,7 +5710,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="6"/>
@@ -5812,7 +5754,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="6"/>
@@ -5856,7 +5798,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="6"/>
@@ -34787,7 +34729,7 @@
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>114</v>
@@ -34838,7 +34780,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>120</v>
@@ -63995,7 +63937,9 @@
   </sheetPr>
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -64245,80 +64189,32 @@
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="5">
-        <v>250</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-      <c r="I8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>oblepiha rosmary tea</v>
-      </c>
-      <c r="J8" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>oblepiha rosmary tea_2</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="5">
-        <v>250</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="I9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">сranberry piquant tea </v>
-      </c>
-      <c r="J9" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>сranberry piquant tea _2</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="5">
-        <v>250</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="I10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>herbal raspberry tea</v>
-      </c>
-      <c r="J10" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>herbal raspberry tea_2</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64387,28 +64283,28 @@
     </row>
     <row r="2" spans="1:27" ht="15">
       <c r="A2" s="19" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I10" si="0">LOWER($B2)</f>
@@ -64438,28 +64334,28 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="I3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64472,28 +64368,28 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64506,28 +64402,28 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64540,28 +64436,28 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64574,28 +64470,28 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64608,28 +64504,28 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64642,28 +64538,28 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64687,140 +64583,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:26" ht="15">
-      <c r="A2" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I4" si="0">LOWER($B2)</f>
-        <v>aperol spritz</v>
-      </c>
-      <c r="J2" s="13" t="str">
-        <f t="shared" ref="J2:J4" si="1">LOWER($B2)&amp;"_"&amp;2</f>
-        <v>aperol spritz_2</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="5">
-        <v>20</v>
-      </c>
-      <c r="I3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>mango coconut spritz</v>
-      </c>
-      <c r="J3" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>mango coconut spritz_2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="5">
-        <v>20</v>
-      </c>
-      <c r="I4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>coffee spritz</v>
-      </c>
-      <c r="J4" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>coffee spritz_2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/coffee/bar.xlsx
+++ b/public/coffee/bar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71441A-4A3D-2F41-83E0-EC18B621257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8ECDDF-1EAD-A041-B884-7D626241FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5240" yWindow="5200" windowWidth="22500" windowHeight="11740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="matcha" sheetId="5" r:id="rId5"/>
     <sheet name="tea" sheetId="6" r:id="rId6"/>
     <sheet name="wine card" sheetId="7" r:id="rId7"/>
+    <sheet name="cocktails" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="261">
   <si>
     <t>name_ru</t>
   </si>
@@ -638,21 +639,6 @@
     <t>მასალა</t>
   </si>
   <si>
-    <t>Casa Farive Prosecco Frizzante Treviso DOC</t>
-  </si>
-  <si>
-    <t>125 / 750</t>
-  </si>
-  <si>
-    <t>12 / 90</t>
-  </si>
-  <si>
-    <t>Игристое вино с нежным перлажем, обладающее свежим фруктовым вкусом, с нотками зеленых яблок и цитрусовых</t>
-  </si>
-  <si>
-    <t>Sparkling wine with delicate perlage, which has a fresh and fruity taste, with notes of green apples and citrus</t>
-  </si>
-  <si>
     <t>Marlborough Sun Sauvignon Blanc Bubbles</t>
   </si>
   <si>
@@ -675,12 +661,6 @@
   </si>
   <si>
     <t>Sparkling wine with the aroma of citrus fruits, green apples and white flowers, refreshing notes of green apple, lemon peel and ripe pear are felt in the taste.</t>
-  </si>
-  <si>
-    <t>Esteban Martin Chardonnay &amp; Macabeo</t>
-  </si>
-  <si>
-    <t>13 / 70</t>
   </si>
   <si>
     <t>Белое сухое вино с ароматом цитрусовых, тропических фруктов и нежных цветов, переходящим в ароматы спелого ананаса, зеленого яблока и нотки ванили.</t>
@@ -722,9 +702,6 @@
     <t>Dry white wine with a fresh aroma of nettles, wet seeds and citrus fruits.</t>
   </si>
   <si>
-    <t>Esteban Martin Garnacha Syrah Tempranillo</t>
-  </si>
-  <si>
     <t>Красное сухое вино с ароматом карамели, шоколада и нотами эвкалипта и лакрицы. Хорошо структурированный вкус и долгое послевкусие с тонкими и сбалансированными танинами.</t>
   </si>
   <si>
@@ -745,12 +722,114 @@
   <si>
     <t>10/13</t>
   </si>
+  <si>
+    <t>Blanc de Blancs</t>
+  </si>
+  <si>
+    <t>12 / 70</t>
+  </si>
+  <si>
+    <t>Esteban Martin Chardonnay</t>
+  </si>
+  <si>
+    <t>Esteban Martin Garnacha</t>
+  </si>
+  <si>
+    <t>Апероль Шприц</t>
+  </si>
+  <si>
+    <t>Aperol Spritz</t>
+  </si>
+  <si>
+    <t>აპეროლის შპრიცი</t>
+  </si>
+  <si>
+    <t>Кофейный Шприц</t>
+  </si>
+  <si>
+    <t>Coffee Spritz</t>
+  </si>
+  <si>
+    <t>ყავის შპრიცი</t>
+  </si>
+  <si>
+    <t>Цитрусовый шприц</t>
+  </si>
+  <si>
+    <t>citrus Spritz</t>
+  </si>
+  <si>
+    <t>ციტრუსის შპრიცი</t>
+  </si>
+  <si>
+    <t>Джин тоник грейпфрут бузина</t>
+  </si>
+  <si>
+    <t>grapefruit elder gin &amp; tonic</t>
+  </si>
+  <si>
+    <t>ციტრუსის ჯინი &amp; ტონიკი</t>
+  </si>
+  <si>
+    <t>Беллини</t>
+  </si>
+  <si>
+    <t>bellini</t>
+  </si>
+  <si>
+    <t>ბელინი</t>
+  </si>
+  <si>
+    <t>МонБлан</t>
+  </si>
+  <si>
+    <t>monc blanc</t>
+  </si>
+  <si>
+    <t>მონ ბლან</t>
+  </si>
+  <si>
+    <t>Клюквенный колд брю</t>
+  </si>
+  <si>
+    <t>cold brew cranberry</t>
+  </si>
+  <si>
+    <t>ცივი ყავის ფილტრი შტოშის</t>
+  </si>
+  <si>
+    <t>Холодный чай манго юзу</t>
+  </si>
+  <si>
+    <t>ice tea mango yuzy</t>
+  </si>
+  <si>
+    <t>ცივი ჩაი იუზუთი და მანგოთი</t>
+  </si>
+  <si>
+    <t>Холодный чай базилик - мята</t>
+  </si>
+  <si>
+    <t>ice tea lime and basil</t>
+  </si>
+  <si>
+    <t>ცივი ჩაი ლაიმით და რეჰანით</t>
+  </si>
+  <si>
+    <t>Кремовый матча оранж</t>
+  </si>
+  <si>
+    <t>matcha orange creamy</t>
+  </si>
+  <si>
+    <t>ფორთოხლის მატჩა ნაღებით</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -847,6 +926,19 @@
       <color rgb="FF000000"/>
       <name val="&quot;YAFdtQJYB9w 1&quot;"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -899,11 +991,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1124,7 +1214,9 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1359,7 +1451,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>49</v>
@@ -1427,7 +1519,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>64</v>
@@ -5444,7 +5536,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5518,11 +5610,11 @@
         <v>74</v>
       </c>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I9" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I13" si="0">LOWER($B2)</f>
         <v>filter coffee</v>
       </c>
       <c r="J2" s="13" t="str">
-        <f t="shared" ref="J2:J9" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J2:J13" si="1">LOWER($B2)&amp;"_"&amp;2</f>
         <v>filter coffee_2</v>
       </c>
       <c r="K2" s="6"/>
@@ -5608,7 +5700,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>82</v>
@@ -5710,7 +5802,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="6"/>
@@ -5754,7 +5846,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="6"/>
@@ -5798,7 +5890,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="6"/>
@@ -5854,16 +5946,30 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="A10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22">
+        <v>13</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>monc blanc</v>
+      </c>
+      <c r="J10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>monc blanc_2</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -5883,16 +5989,30 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
+        <v>12</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>cold brew cranberry</v>
+      </c>
+      <c r="J11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>cold brew cranberry_2</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -5912,16 +6032,30 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="A12" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
+        <v>12</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ice tea mango yuzy</v>
+      </c>
+      <c r="J12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ice tea mango yuzy_2</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -5941,16 +6075,30 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="A13" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
+        <v>8</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ice tea lime and basil</v>
+      </c>
+      <c r="J13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>ice tea lime and basil_2</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -34729,7 +34877,7 @@
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>114</v>
@@ -34780,7 +34928,7 @@
         <v>62</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>120</v>
@@ -63639,8 +63787,8 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -63706,11 +63854,11 @@
         <v>158</v>
       </c>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I6" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I7" si="0">LOWER($B2)</f>
         <v>matcha-ice matcha</v>
       </c>
       <c r="J2" s="13" t="str">
-        <f t="shared" ref="J2:J6" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J2:J7" si="1">LOWER($B2)&amp;"_"&amp;2</f>
         <v>matcha-ice matcha_2</v>
       </c>
       <c r="K2" s="6"/>
@@ -63897,16 +64045,30 @@
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22">
+        <v>15</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>matcha orange creamy</v>
+      </c>
+      <c r="J7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>matcha orange creamy_2</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -63937,8 +64099,8 @@
   </sheetPr>
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -63997,11 +64159,11 @@
       <c r="G2" s="16"/>
       <c r="H2" s="6"/>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I10" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I7" si="0">LOWER($B2)</f>
         <v>assam</v>
       </c>
       <c r="J2" s="13" t="str">
-        <f t="shared" ref="J2:J10" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J2:J7" si="1">LOWER($B2)&amp;"_"&amp;2</f>
         <v>assam_2</v>
       </c>
       <c r="K2" s="6"/>
@@ -64209,8 +64371,8 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="I10" s="13"/>
@@ -64228,7 +64390,9 @@
   </sheetPr>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -64282,37 +64446,29 @@
       <c r="AA1" s="6"/>
     </row>
     <row r="2" spans="1:27" ht="15">
-      <c r="A2" s="19" t="s">
-        <v>199</v>
+      <c r="A2" s="8" t="s">
+        <v>227</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>199</v>
+      <c r="B2" s="8" t="s">
+        <v>227</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>199</v>
+      <c r="C2" s="8" t="s">
+        <v>227</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>200</v>
+      <c r="D2" s="2"/>
+      <c r="E2" s="15" t="s">
+        <v>228</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>203</v>
-      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I10" si="0">LOWER($B2)</f>
-        <v>casa farive prosecco frizzante treviso doc</v>
+        <v>blanc de blancs</v>
       </c>
       <c r="J2" s="13" t="str">
         <f t="shared" ref="J2:J9" si="1">LOWER($B2)&amp;"_"&amp;2</f>
-        <v>casa farive prosecco frizzante treviso doc_2</v>
+        <v>blanc de blancs_2</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -64334,28 +64490,26 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64368,28 +64522,26 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64402,62 +64554,58 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>213</v>
+      <c r="D5" s="5"/>
+      <c r="E5" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>esteban martin chardonnay &amp; macabeo</v>
+        <v>esteban martin chardonnay</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>esteban martin chardonnay &amp; macabeo_2</v>
+        <v>esteban martin chardonnay_2</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64470,28 +64618,26 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64504,28 +64650,26 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -64538,36 +64682,34 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>esteban martin garnacha syrah tempranillo</v>
+        <v>esteban martin garnacha</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>esteban martin garnacha syrah tempranillo_2</v>
+        <v>esteban martin garnacha_2</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1">
@@ -64581,6 +64723,172 @@
       <c r="J11" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF9E159-092D-2643-8482-992B0AE0FC0F}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="19">
+      <c r="A2" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22">
+        <v>20</v>
+      </c>
+      <c r="I2" s="13" t="str">
+        <f t="shared" ref="I2:I6" si="0">LOWER($B2)</f>
+        <v>aperol spritz</v>
+      </c>
+      <c r="J2" s="13" t="str">
+        <f t="shared" ref="J2:J6" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <v>aperol spritz_2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19">
+      <c r="A3" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22">
+        <v>20</v>
+      </c>
+      <c r="I3" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>coffee spritz</v>
+      </c>
+      <c r="J3" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>coffee spritz_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19">
+      <c r="A4" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22">
+        <v>20</v>
+      </c>
+      <c r="I4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>citrus spritz</v>
+      </c>
+      <c r="J4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>citrus spritz_2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19">
+      <c r="A5" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>grapefruit elder gin &amp; tonic</v>
+      </c>
+      <c r="J5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>grapefruit elder gin &amp; tonic_2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19">
+      <c r="A6" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>bellini</v>
+      </c>
+      <c r="J6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>bellini_2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/coffee/bar.xlsx
+++ b/public/coffee/bar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Desktop/projects/sage/GkirillS.github.io/public/coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8ECDDF-1EAD-A041-B884-7D626241FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8058F9-42E4-4345-B337-8931CC971F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="5200" windowWidth="22500" windowHeight="11740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5240" yWindow="5180" windowWidth="22500" windowHeight="11740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalogs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="255">
   <si>
     <t>name_ru</t>
   </si>
@@ -798,24 +798,6 @@
     <t>ცივი ყავის ფილტრი შტოშის</t>
   </si>
   <si>
-    <t>Холодный чай манго юзу</t>
-  </si>
-  <si>
-    <t>ice tea mango yuzy</t>
-  </si>
-  <si>
-    <t>ცივი ჩაი იუზუთი და მანგოთი</t>
-  </si>
-  <si>
-    <t>Холодный чай базилик - мята</t>
-  </si>
-  <si>
-    <t>ice tea lime and basil</t>
-  </si>
-  <si>
-    <t>ცივი ჩაი ლაიმით და რეჰანით</t>
-  </si>
-  <si>
     <t>Кремовый матча оранж</t>
   </si>
   <si>
@@ -5533,10 +5515,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5610,11 +5592,11 @@
         <v>74</v>
       </c>
       <c r="I2" s="13" t="str">
-        <f t="shared" ref="I2:I13" si="0">LOWER($B2)</f>
+        <f t="shared" ref="I2:I11" si="0">LOWER($B2)</f>
         <v>filter coffee</v>
       </c>
       <c r="J2" s="13" t="str">
-        <f t="shared" ref="J2:J13" si="1">LOWER($B2)&amp;"_"&amp;2</f>
+        <f t="shared" ref="J2:J11" si="1">LOWER($B2)&amp;"_"&amp;2</f>
         <v>filter coffee_2</v>
       </c>
       <c r="K2" s="6"/>
@@ -6032,30 +6014,16 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22">
-        <v>12</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>ice tea mango yuzy</v>
-      </c>
-      <c r="J12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>ice tea mango yuzy_2</v>
-      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -6075,30 +6043,16 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22">
-        <v>8</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>ice tea lime and basil</v>
-      </c>
-      <c r="J13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>ice tea lime and basil_2</v>
-      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -7045,7 +6999,7 @@
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1">
+    <row r="46" spans="1:27" ht="13">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -7074,7 +7028,7 @@
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1">
+    <row r="47" spans="1:27" ht="13">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -34681,64 +34635,6 @@
       <c r="Y998" s="6"/>
       <c r="Z998" s="6"/>
       <c r="AA998" s="6"/>
-    </row>
-    <row r="999" spans="1:27" ht="13">
-      <c r="A999" s="6"/>
-      <c r="B999" s="6"/>
-      <c r="C999" s="6"/>
-      <c r="D999" s="18"/>
-      <c r="E999" s="18"/>
-      <c r="F999" s="6"/>
-      <c r="G999" s="6"/>
-      <c r="H999" s="6"/>
-      <c r="I999" s="6"/>
-      <c r="J999" s="6"/>
-      <c r="K999" s="6"/>
-      <c r="L999" s="6"/>
-      <c r="M999" s="6"/>
-      <c r="N999" s="6"/>
-      <c r="O999" s="6"/>
-      <c r="P999" s="6"/>
-      <c r="Q999" s="6"/>
-      <c r="R999" s="6"/>
-      <c r="S999" s="6"/>
-      <c r="T999" s="6"/>
-      <c r="U999" s="6"/>
-      <c r="V999" s="6"/>
-      <c r="W999" s="6"/>
-      <c r="X999" s="6"/>
-      <c r="Y999" s="6"/>
-      <c r="Z999" s="6"/>
-      <c r="AA999" s="6"/>
-    </row>
-    <row r="1000" spans="1:27" ht="13">
-      <c r="A1000" s="6"/>
-      <c r="B1000" s="6"/>
-      <c r="C1000" s="6"/>
-      <c r="D1000" s="18"/>
-      <c r="E1000" s="18"/>
-      <c r="F1000" s="6"/>
-      <c r="G1000" s="6"/>
-      <c r="H1000" s="6"/>
-      <c r="I1000" s="6"/>
-      <c r="J1000" s="6"/>
-      <c r="K1000" s="6"/>
-      <c r="L1000" s="6"/>
-      <c r="M1000" s="6"/>
-      <c r="N1000" s="6"/>
-      <c r="O1000" s="6"/>
-      <c r="P1000" s="6"/>
-      <c r="Q1000" s="6"/>
-      <c r="R1000" s="6"/>
-      <c r="S1000" s="6"/>
-      <c r="T1000" s="6"/>
-      <c r="U1000" s="6"/>
-      <c r="V1000" s="6"/>
-      <c r="W1000" s="6"/>
-      <c r="X1000" s="6"/>
-      <c r="Y1000" s="6"/>
-      <c r="Z1000" s="6"/>
-      <c r="AA1000" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63787,7 +63683,7 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -64046,13 +63942,13 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22">
